--- a/xlsx/country_comparison/global_tax_global_share_mean.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_mean.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred share of global tax for LICs (in %)</t>
+    <t xml:space="preserve">Preferred share of global tax for low-income (in %)</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>33.5092886901687</v>
+        <v>33.5092886890164</v>
       </c>
       <c r="C2" t="n">
         <v>33.3153228057523</v>
